--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD5_Offers_150520.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD5_Offers_150520.xlsx
@@ -1059,12 +1059,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1077,15 +1071,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1137,15 +1122,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1185,15 +1161,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1228,6 +1195,39 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1536,975 +1536,975 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="21" style="35" customWidth="1"/>
-    <col min="5" max="5" width="23" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" style="63" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="35" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="3.7109375" style="54" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="21" style="30" customWidth="1"/>
+    <col min="5" max="5" width="23" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" style="55" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="30" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="31" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:8" s="29" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-    </row>
-    <row r="3" spans="1:8" s="59" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
+    </row>
+    <row r="3" spans="1:8" s="51" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="72"/>
-    </row>
-    <row r="4" spans="1:8" s="59" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="37" t="s">
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="61"/>
+    </row>
+    <row r="4" spans="1:8" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="60"/>
+      <c r="B4" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="35"/>
+    </row>
+    <row r="5" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="72"/>
-    </row>
-    <row r="6" spans="1:8" s="59" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
-      <c r="B6" s="37" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="1:8" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="60"/>
+      <c r="B6" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="58" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="72" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="61" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="59" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:8" s="51" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+      <c r="A7" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="58" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="72"/>
-    </row>
-    <row r="8" spans="1:8" s="59" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="F7" s="50"/>
+      <c r="G7" s="61"/>
+    </row>
+    <row r="8" spans="1:8" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58" t="s">
+      <c r="E8" s="50"/>
+      <c r="F8" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="61" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="59" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+    <row r="9" spans="1:8" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="40" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="59" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+    <row r="10" spans="1:8" s="51" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+      <c r="A10" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="38" t="s">
+      <c r="E10" s="50"/>
+      <c r="F10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="59" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
+    <row r="11" spans="1:8" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="38" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="59" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:8" s="51" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="58" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="40" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="35" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="141.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="38" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="62" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-      <c r="B14" s="37" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="38" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="H14" s="73"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="38" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="77"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="78" t="s">
+      <c r="D16" s="66"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="79" t="s">
+      <c r="G16" s="68" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="71"/>
-      <c r="B18" s="37" t="s">
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+    </row>
+    <row r="18" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="60"/>
+      <c r="B18" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="33">
         <v>255</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="72"/>
-    </row>
-    <row r="19" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="71"/>
-      <c r="B19" s="37" t="s">
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="61"/>
+    </row>
+    <row r="19" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="60"/>
+      <c r="B19" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="33">
         <v>150</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="72"/>
-    </row>
-    <row r="20" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="71"/>
-      <c r="B20" s="37" t="s">
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="61"/>
+    </row>
+    <row r="20" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="60"/>
+      <c r="B20" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="33">
         <v>150</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="72"/>
-    </row>
-    <row r="21" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71"/>
-      <c r="B21" s="37" t="s">
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="61"/>
+    </row>
+    <row r="21" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="60"/>
+      <c r="B21" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="33">
         <v>50</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="72"/>
-    </row>
-    <row r="22" spans="1:7" s="59" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="61"/>
+    </row>
+    <row r="22" spans="1:7" s="51" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="44" t="s">
+      <c r="E22" s="52"/>
+      <c r="F22" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="81"/>
-      <c r="B24" s="37" t="s">
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+    </row>
+    <row r="24" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="70"/>
+      <c r="B24" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="72"/>
-    </row>
-    <row r="25" spans="1:7" s="59" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="A25" s="71" t="s">
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="61"/>
+    </row>
+    <row r="25" spans="1:7" s="51" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+      <c r="A25" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="49" t="s">
+      <c r="C25" s="50"/>
+      <c r="D25" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="38" t="s">
+      <c r="E25" s="50"/>
+      <c r="F25" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="35" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-      <c r="B26" s="37" t="s">
+    <row r="26" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="60"/>
+      <c r="B26" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" s="59" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="A27" s="71"/>
-      <c r="B27" s="37" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="35"/>
+    </row>
+    <row r="27" spans="1:7" s="51" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+      <c r="A27" s="60"/>
+      <c r="B27" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="82" t="s">
+      <c r="D27" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="58" t="s">
+      <c r="F27" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="59" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="71"/>
-      <c r="B28" s="37" t="s">
+    <row r="28" spans="1:7" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="60"/>
+      <c r="B28" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="58" t="s">
+      <c r="D28" s="44"/>
+      <c r="E28" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="35" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71"/>
-      <c r="B29" s="37" t="s">
+    <row r="29" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="60"/>
+      <c r="B29" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58" t="s">
+      <c r="D29" s="44"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="40"/>
-    </row>
-    <row r="30" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="71"/>
-      <c r="B30" s="37" t="s">
+      <c r="G29" s="35"/>
+    </row>
+    <row r="30" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="60"/>
+      <c r="B30" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="40"/>
-    </row>
-    <row r="31" spans="1:7" s="59" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="43" t="s">
+      <c r="D30" s="44"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="35"/>
+    </row>
+    <row r="31" spans="1:7" s="51" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
+      <c r="B31" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="47" t="s">
+      <c r="D31" s="46"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="42" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="74"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="38" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="38" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="39"/>
-      <c r="G34" s="40"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
     </row>
     <row r="35" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="38" t="s">
+      <c r="D35" s="34"/>
+      <c r="E35" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
     </row>
     <row r="36" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="41" t="s">
+      <c r="D36" s="34"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="36" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="41" t="s">
+      <c r="D37" s="34"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
+    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="41" t="s">
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="36" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="45"/>
-      <c r="E39" s="44" t="s">
+      <c r="D39" s="40"/>
+      <c r="E39" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="46"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="41"/>
     </row>
     <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="34"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="74"/>
     </row>
     <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
-      <c r="B41" s="37" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="40" t="s">
+      <c r="D41" s="34"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
-      <c r="B42" s="37" t="s">
+      <c r="A42" s="31"/>
+      <c r="B42" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="40" t="s">
+      <c r="D42" s="34"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
-      <c r="B43" s="37" t="s">
+      <c r="A43" s="31"/>
+      <c r="B43" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="40" t="s">
+      <c r="D43" s="34"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="45"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="47" t="s">
+      <c r="D44" s="40"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="48" t="s">
+      <c r="B45" s="73"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="36"/>
-      <c r="B46" s="37" t="s">
+      <c r="A46" s="31"/>
+      <c r="B46" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="50" t="s">
+      <c r="D46" s="34"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
-      <c r="B47" s="37" t="s">
+      <c r="A47" s="31"/>
+      <c r="B47" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="39" t="s">
+      <c r="D47" s="34"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="41"/>
-      <c r="H47" s="50"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="36"/>
-      <c r="B48" s="37" t="s">
+      <c r="A48" s="31"/>
+      <c r="B48" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="40" t="s">
+      <c r="D48" s="34"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H48" s="50" t="s">
+      <c r="H48" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
-      <c r="B49" s="37" t="s">
+      <c r="A49" s="31"/>
+      <c r="B49" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="50" t="s">
+      <c r="D49" s="34"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="45"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="50" t="s">
+      <c r="D50" s="40"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="45" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="54"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="80"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="36"/>
-      <c r="B52" s="37" t="s">
+      <c r="A52" s="31"/>
+      <c r="B52" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="57" t="s">
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="49" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="59" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="36"/>
-      <c r="B53" s="37" t="s">
+    <row r="53" spans="1:8" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="31"/>
+      <c r="B53" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="58" t="s">
+      <c r="D53" s="44"/>
+      <c r="E53" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F53" s="38"/>
-      <c r="G53" s="40" t="s">
+      <c r="F53" s="33"/>
+      <c r="G53" s="35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="59" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="A54" s="36"/>
-      <c r="B54" s="37" t="s">
+    <row r="54" spans="1:8" s="51" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="31"/>
+      <c r="B54" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="49" t="s">
+      <c r="D54" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="40" t="s">
+      <c r="E54" s="50"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="35" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43" t="s">
+      <c r="A55" s="37"/>
+      <c r="B55" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="61" t="s">
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="53" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="64"/>
+      <c r="B59" s="56"/>
     </row>
     <row r="60" spans="1:8" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="58" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="56"/>
+      <c r="C61" s="48"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="67" t="s">
+      <c r="B62" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="56"/>
+      <c r="C62" s="48"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="67" t="s">
+      <c r="B63" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="56"/>
+      <c r="C63" s="48"/>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E65" s="63"/>
-      <c r="G65" s="35"/>
+      <c r="E65" s="55"/>
+      <c r="G65" s="30"/>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E66" s="63"/>
-      <c r="G66" s="35"/>
+      <c r="E66" s="55"/>
+      <c r="G66" s="30"/>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E67" s="63"/>
-      <c r="G67" s="35"/>
+      <c r="E67" s="55"/>
+      <c r="G67" s="30"/>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E68" s="63"/>
-      <c r="G68" s="35"/>
+      <c r="E68" s="55"/>
+      <c r="G68" s="30"/>
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E69" s="63"/>
-      <c r="G69" s="35"/>
+      <c r="E69" s="55"/>
+      <c r="G69" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A51:G51"/>
     <mergeCell ref="A45:G45"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A51:G51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2532,14 +2532,14 @@
   <sheetData>
     <row r="1" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="21"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -2656,10 +2656,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -2733,10 +2733,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="82"/>
     </row>
     <row r="3" spans="2:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
@@ -2787,10 +2787,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="82"/>
     </row>
     <row r="3" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">

--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD5_Offers_150520.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD5_Offers_150520.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="151">
   <si>
     <t>Creation date</t>
   </si>
@@ -512,9 +512,6 @@
 [Código 25]</t>
   </si>
   <si>
-    <t>FALTA</t>
-  </si>
-  <si>
     <t>Long / Lista
  [Campo]</t>
   </si>
@@ -523,7 +520,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -613,12 +610,6 @@
       <color rgb="FFFF0000"/>
       <name val="MS Sans Serif"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1194,7 +1185,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1215,19 +1212,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1536,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1564,7 +1555,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>22</v>
@@ -1578,15 +1569,15 @@
       <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
     </row>
     <row r="3" spans="1:8" s="51" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="60" t="s">
@@ -1847,15 +1838,15 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
     </row>
     <row r="18" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="60"/>
@@ -1939,15 +1930,15 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
     </row>
     <row r="24" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="70"/>
@@ -2002,9 +1993,7 @@
       <c r="C27" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="71" t="s">
-        <v>150</v>
-      </c>
+      <c r="D27" s="82"/>
       <c r="E27" s="50" t="s">
         <v>1</v>
       </c>
@@ -2078,15 +2067,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="74"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="76"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
@@ -2206,15 +2195,15 @@
       <c r="G39" s="41"/>
     </row>
     <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="74"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="76"/>
     </row>
     <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
@@ -2277,15 +2266,15 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="72" t="s">
+      <c r="A45" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="73"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="74"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="76"/>
       <c r="H45" s="43" t="s">
         <v>8</v>
       </c>
@@ -2373,15 +2362,15 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="80"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="73"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
@@ -2532,14 +2521,14 @@
   <sheetData>
     <row r="1" spans="1:7" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="21"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:7" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
@@ -2656,10 +2645,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="82"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
@@ -2733,10 +2722,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="82"/>
+      <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="18" t="s">
@@ -2787,10 +2776,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="82"/>
+      <c r="C2" s="81"/>
     </row>
     <row r="3" spans="2:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
